--- a/Input/Rak/benefits.xlsx
+++ b/Input/Rak/benefits.xlsx
@@ -391,12 +391,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -433,8 +439,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,11 +460,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,38 +478,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BF2" activeCellId="0" sqref="BF2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="17" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="75.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="45.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,176 +669,176 @@
       <c r="BD1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="0" t="s">
+      <c r="BE1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" s="0" t="s">
+      <c r="BF1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="0" t="s">
+      <c r="BG1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" s="0" t="s">
+      <c r="BH1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" s="0" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="0" t="s">
+      <c r="BK1" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="1" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="1" t="s">
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="1" t="s">
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="1" t="s">
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="BF2" s="0" t="s">
@@ -832,13 +847,13 @@
       <c r="BG2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BH2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BI2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>62</v>
       </c>
       <c r="BK2" s="0" t="s">
@@ -846,30 +861,30 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH3" s="1" t="s">
+      <c r="BH3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BI3" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH4" s="1" t="s">
+      <c r="BH4" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH5" s="1" t="s">
+      <c r="BH5" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH6" s="1" t="s">
+      <c r="BH6" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BH7" s="1" t="s">
+      <c r="BH7" s="4" t="s">
         <v>102</v>
       </c>
     </row>
